--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\api-libros-biblia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DF9CD5-3FD9-44A4-9668-827D4890004B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADACAB7-8D27-4220-8393-51CF6E46EB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{93A0FE07-46AC-4DE1-BD6B-BE419B6C2BB5}"/>
   </bookViews>
@@ -443,7 +443,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -472,6 +472,9 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -484,6 +487,9 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -496,6 +502,9 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -508,6 +517,9 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -520,6 +532,9 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -532,6 +547,9 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -544,6 +562,9 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -555,6 +576,9 @@
       </c>
       <c r="C9" t="s">
         <v>13</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\api-libros-biblia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADACAB7-8D27-4220-8393-51CF6E46EB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95789342-63D2-404F-BC58-8A32CB85573E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{93A0FE07-46AC-4DE1-BD6B-BE419B6C2BB5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="83">
   <si>
     <t>Id</t>
   </si>
@@ -76,6 +76,213 @@
   </si>
   <si>
     <t>Samuel</t>
+  </si>
+  <si>
+    <t>Seccion</t>
+  </si>
+  <si>
+    <t>1 Samuel</t>
+  </si>
+  <si>
+    <t>Samuel; Gad; Natán</t>
+  </si>
+  <si>
+    <t>2 Samuel</t>
+  </si>
+  <si>
+    <t>Gad; Natán</t>
+  </si>
+  <si>
+    <t>1 Reyes</t>
+  </si>
+  <si>
+    <t>Jeremías</t>
+  </si>
+  <si>
+    <t>2 Reyes</t>
+  </si>
+  <si>
+    <t>1 Crónicas</t>
+  </si>
+  <si>
+    <t>Esdras</t>
+  </si>
+  <si>
+    <t>2 Crónicas</t>
+  </si>
+  <si>
+    <t>Nehemías</t>
+  </si>
+  <si>
+    <t>Ester</t>
+  </si>
+  <si>
+    <t>Mardoqueo</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Salmos</t>
+  </si>
+  <si>
+    <t>David y otros</t>
+  </si>
+  <si>
+    <t>Proverbios</t>
+  </si>
+  <si>
+    <t>Salomón; Agur; Lemuel</t>
+  </si>
+  <si>
+    <t>Eclesiastés</t>
+  </si>
+  <si>
+    <t>Salomón</t>
+  </si>
+  <si>
+    <t>El Cantar de los Cantares</t>
+  </si>
+  <si>
+    <t>Isaías</t>
+  </si>
+  <si>
+    <t>Lamentaciones</t>
+  </si>
+  <si>
+    <t>Ezequiel</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Oseas</t>
+  </si>
+  <si>
+    <t>Joel</t>
+  </si>
+  <si>
+    <t>Amós</t>
+  </si>
+  <si>
+    <t>Abdías</t>
+  </si>
+  <si>
+    <t>Jonás</t>
+  </si>
+  <si>
+    <t>Miqueas</t>
+  </si>
+  <si>
+    <t>Nahúm</t>
+  </si>
+  <si>
+    <t>Habacuc</t>
+  </si>
+  <si>
+    <t>Sofonías</t>
+  </si>
+  <si>
+    <t>Ageo</t>
+  </si>
+  <si>
+    <t>Zacarías</t>
+  </si>
+  <si>
+    <t>Malaquías</t>
+  </si>
+  <si>
+    <t>Mateo</t>
+  </si>
+  <si>
+    <t>Marcos</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Hechos</t>
+  </si>
+  <si>
+    <t>Romanos</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>1 Corintios</t>
+  </si>
+  <si>
+    <t>2 Corintios</t>
+  </si>
+  <si>
+    <t>Gálatas</t>
+  </si>
+  <si>
+    <t>Efesios</t>
+  </si>
+  <si>
+    <t>Filipenses</t>
+  </si>
+  <si>
+    <t>Colosenses</t>
+  </si>
+  <si>
+    <t>1 Tesalonicenses</t>
+  </si>
+  <si>
+    <t>2 Tesalonicenses</t>
+  </si>
+  <si>
+    <t>1 Timoteo</t>
+  </si>
+  <si>
+    <t>2 Timoteo</t>
+  </si>
+  <si>
+    <t>Tito</t>
+  </si>
+  <si>
+    <t>Filemón</t>
+  </si>
+  <si>
+    <t>Hebreos</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>1 Pedro</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>2 Pedro</t>
+  </si>
+  <si>
+    <t>1 Juan</t>
+  </si>
+  <si>
+    <t>2 Juan</t>
+  </si>
+  <si>
+    <t>3 Juan</t>
+  </si>
+  <si>
+    <t>Judas</t>
+  </si>
+  <si>
+    <t>Apocalipsis</t>
+  </si>
+  <si>
+    <t>Escrituras Hebreas</t>
+  </si>
+  <si>
+    <t>Escrituras Griegas</t>
   </si>
 </sst>
 </file>
@@ -131,13 +338,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0E5785D8-B6EC-46F7-8D02-B2AF4E182C93}" name="Tabla1" displayName="Tabla1" ref="A1:D9" totalsRowShown="0">
-  <autoFilter ref="A1:D9" xr:uid="{0E5785D8-B6EC-46F7-8D02-B2AF4E182C93}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0E5785D8-B6EC-46F7-8D02-B2AF4E182C93}" name="Tabla1" displayName="Tabla1" ref="A1:E67" totalsRowShown="0">
+  <autoFilter ref="A1:E67" xr:uid="{0E5785D8-B6EC-46F7-8D02-B2AF4E182C93}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDD157F1-5863-47C8-951A-4166811CBA3E}" name="Id"/>
     <tableColumn id="2" xr3:uid="{D1A00B23-22C6-4A7F-813B-E7111531C987}" name="Libro"/>
     <tableColumn id="3" xr3:uid="{B1225D11-8724-4F09-B69E-17DD9533C431}" name="Escritor"/>
     <tableColumn id="4" xr3:uid="{5097303E-47BA-4D82-8882-E12D3261B48D}" name="Capitulos"/>
+    <tableColumn id="5" xr3:uid="{9ED7BF1D-B1B0-4B90-8FF0-DC66ABE867F1}" name="Seccion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -440,15 +648,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECCFE22-B51E-4929-B806-25132808337E}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,8 +672,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -473,10 +687,13 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -488,12 +705,15 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
-        <f t="shared" ref="A4:A9" si="0">A3+1</f>
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -503,10 +723,13 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -518,10 +741,13 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -533,10 +759,13 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -548,10 +777,13 @@
         <v>9</v>
       </c>
       <c r="D7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -563,10 +795,13 @@
         <v>13</v>
       </c>
       <c r="D8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -578,7 +813,1054 @@
         <v>13</v>
       </c>
       <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>150</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23">
         <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>52</v>
+      </c>
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41">
+        <v>28</v>
+      </c>
+      <c r="E41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42">
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45">
+        <v>28</v>
+      </c>
+      <c r="E45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46">
+        <v>16</v>
+      </c>
+      <c r="E46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" t="s">
+        <v>55</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67">
+        <v>22</v>
+      </c>
+      <c r="E67" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\api-libros-biblia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95789342-63D2-404F-BC58-8A32CB85573E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E7D0BB-4270-4920-87D6-C7A5FBA81232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{93A0FE07-46AC-4DE1-BD6B-BE419B6C2BB5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="84">
   <si>
     <t>Id</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>Escrituras Griegas</t>
+  </si>
+  <si>
+    <t>Jehová</t>
   </si>
 </sst>
 </file>
@@ -338,14 +341,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0E5785D8-B6EC-46F7-8D02-B2AF4E182C93}" name="Tabla1" displayName="Tabla1" ref="A1:E67" totalsRowShown="0">
-  <autoFilter ref="A1:E67" xr:uid="{0E5785D8-B6EC-46F7-8D02-B2AF4E182C93}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0E5785D8-B6EC-46F7-8D02-B2AF4E182C93}" name="Tabla1" displayName="Tabla1" ref="A1:F67" totalsRowShown="0">
+  <autoFilter ref="A1:F67" xr:uid="{0E5785D8-B6EC-46F7-8D02-B2AF4E182C93}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DDD157F1-5863-47C8-951A-4166811CBA3E}" name="Id"/>
     <tableColumn id="2" xr3:uid="{D1A00B23-22C6-4A7F-813B-E7111531C987}" name="Libro"/>
     <tableColumn id="3" xr3:uid="{B1225D11-8724-4F09-B69E-17DD9533C431}" name="Escritor"/>
     <tableColumn id="4" xr3:uid="{5097303E-47BA-4D82-8882-E12D3261B48D}" name="Capitulos"/>
     <tableColumn id="5" xr3:uid="{9ED7BF1D-B1B0-4B90-8FF0-DC66ABE867F1}" name="Seccion"/>
+    <tableColumn id="6" xr3:uid="{F2FA34E8-200E-4646-84F0-66FFEE712834}" name="Jehová"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -648,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECCFE22-B51E-4929-B806-25132808337E}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -659,7 +663,7 @@
     <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -675,8 +679,11 @@
       <c r="E1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -692,8 +699,11 @@
       <c r="E2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -710,8 +720,11 @@
       <c r="E3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
@@ -728,8 +741,11 @@
       <c r="E4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -746,8 +762,11 @@
       <c r="E5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -764,8 +783,11 @@
       <c r="E6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -782,8 +804,11 @@
       <c r="E7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -800,8 +825,11 @@
       <c r="E8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -818,8 +846,11 @@
       <c r="E9" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -836,8 +867,11 @@
       <c r="E10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -854,8 +888,11 @@
       <c r="E11" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -872,8 +909,11 @@
       <c r="E12" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -890,8 +930,11 @@
       <c r="E13" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -908,8 +951,11 @@
       <c r="E14" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -926,8 +972,11 @@
       <c r="E15" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -944,8 +993,11 @@
       <c r="E16" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -962,8 +1014,11 @@
       <c r="E17" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -980,8 +1035,11 @@
       <c r="E18" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -998,8 +1056,11 @@
       <c r="E19" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1016,8 +1077,11 @@
       <c r="E20" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1034,10 +1098,13 @@
       <c r="E21" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f>A21+1</f>
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -1052,8 +1119,11 @@
       <c r="E22" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1070,8 +1140,11 @@
       <c r="E23" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1088,8 +1161,11 @@
       <c r="E24" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1106,8 +1182,11 @@
       <c r="E25" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1124,8 +1203,11 @@
       <c r="E26" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1142,8 +1224,11 @@
       <c r="E27" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1160,8 +1245,11 @@
       <c r="E28" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1178,8 +1266,11 @@
       <c r="E29" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1196,8 +1287,11 @@
       <c r="E30" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1214,8 +1308,11 @@
       <c r="E31" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1232,8 +1329,11 @@
       <c r="E32" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1250,8 +1350,11 @@
       <c r="E33" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1268,8 +1371,11 @@
       <c r="E34" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1286,8 +1392,11 @@
       <c r="E35" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1304,8 +1413,11 @@
       <c r="E36" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1322,8 +1434,11 @@
       <c r="E37" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1340,8 +1455,11 @@
       <c r="E38" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1358,8 +1476,11 @@
       <c r="E39" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F39">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1376,8 +1497,11 @@
       <c r="E40" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F40">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1394,8 +1518,11 @@
       <c r="E41" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F41">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1412,8 +1539,11 @@
       <c r="E42" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1430,8 +1560,11 @@
       <c r="E43" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F43">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1448,8 +1581,11 @@
       <c r="E44" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1466,8 +1602,11 @@
       <c r="E45" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1484,8 +1623,11 @@
       <c r="E46" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F46">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1502,8 +1644,11 @@
       <c r="E47" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F47">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1520,8 +1665,11 @@
       <c r="E48" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1538,8 +1686,11 @@
       <c r="E49" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1556,8 +1707,11 @@
       <c r="E50" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1574,8 +1728,11 @@
       <c r="E51" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -1592,8 +1749,11 @@
       <c r="E52" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -1610,8 +1770,11 @@
       <c r="E53" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -1628,8 +1791,11 @@
       <c r="E54" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -1646,8 +1812,11 @@
       <c r="E55" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -1664,8 +1833,11 @@
       <c r="E56" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -1682,8 +1854,11 @@
       <c r="E57" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -1700,8 +1875,11 @@
       <c r="E58" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -1718,8 +1896,11 @@
       <c r="E59" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -1736,8 +1917,11 @@
       <c r="E60" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F60">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1754,8 +1938,11 @@
       <c r="E61" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -1772,8 +1959,11 @@
       <c r="E62" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -1790,8 +1980,11 @@
       <c r="E63" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -1808,8 +2001,11 @@
       <c r="E64" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -1826,8 +2022,11 @@
       <c r="E65" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -1844,8 +2043,11 @@
       <c r="E66" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -1861,6 +2063,9 @@
       </c>
       <c r="E67" t="s">
         <v>82</v>
+      </c>
+      <c r="F67">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
